--- a/Excel/ProjectS/Datas/LuBanSample/LuBanSample.xlsx
+++ b/Excel/ProjectS/Datas/LuBanSample/LuBanSample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31875" windowHeight="6885"/>
+    <workbookView windowWidth="32115" windowHeight="7470"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1342,7 +1342,7 @@
   <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1627,7 +1627,7 @@
         <v>10001</v>
       </c>
       <c r="M5" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -1671,7 +1671,7 @@
         <v>3</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="2:14">

--- a/Excel/ProjectS/Datas/LuBanSample/LuBanSample.xlsx
+++ b/Excel/ProjectS/Datas/LuBanSample/LuBanSample.xlsx
@@ -1342,7 +1342,7 @@
   <dimension ref="A1:AI14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1606,7 +1606,7 @@
         <v>100</v>
       </c>
       <c r="F5">
-        <v>10001</v>
+        <v>10002</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>37</v>
@@ -1671,7 +1671,7 @@
         <v>3</v>
       </c>
       <c r="N6">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:14">
@@ -1975,7 +1975,7 @@
         <v>100</v>
       </c>
       <c r="F14">
-        <v>10000</v>
+        <v>10002</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>75</v>

--- a/Excel/ProjectS/Datas/LuBanSample/LuBanSample.xlsx
+++ b/Excel/ProjectS/Datas/LuBanSample/LuBanSample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="32115" windowHeight="7470"/>
+    <workbookView windowWidth="18525" windowHeight="17790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1341,8 +1341,8 @@
   <sheetPr/>
   <dimension ref="A1:AI14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
